--- a/model/trading_model/result.xlsx
+++ b/model/trading_model/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -46,613 +46,1009 @@
     <t xml:space="preserve">2018-09-24</t>
   </si>
   <si>
-    <t xml:space="preserve">[1173.52] - [1166.7]</t>
+    <t xml:space="preserve">[1159.85] - [1156.02]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-09-25</t>
   </si>
   <si>
-    <t xml:space="preserve">[1166.87] - [1163.62]</t>
+    <t xml:space="preserve">[1158.31] - [1152.55]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-09-26</t>
   </si>
   <si>
-    <t xml:space="preserve">[1171.45] - [1170.15]</t>
+    <t xml:space="preserve">[1161.11] - [1158.91]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-09-27</t>
   </si>
   <si>
-    <t xml:space="preserve">[1174.64] - [1175.12]</t>
+    <t xml:space="preserve">[1160.85] - [1163.37]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-09-28</t>
   </si>
   <si>
-    <t xml:space="preserve">[1181.48] - [1183.58]</t>
+    <t xml:space="preserve">[1166.1] - [1171.63]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">[1183.4] - [1188.34]</t>
+    <t xml:space="preserve">[1169.01] - [1176.11]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-02</t>
   </si>
   <si>
-    <t xml:space="preserve">[1185.99] - [1192.6]</t>
+    <t xml:space="preserve">[1173.74] - [1180.7]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-03</t>
   </si>
   <si>
-    <t xml:space="preserve">[1186.12] - [1194.59]</t>
+    <t xml:space="preserve">[1175.54] - [1183.2]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-04</t>
   </si>
   <si>
-    <t xml:space="preserve">[1186.88] - [1195.27]</t>
+    <t xml:space="preserve">[1177.25] - [1184.35]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-05</t>
   </si>
   <si>
-    <t xml:space="preserve">[1172.41] - [1182.8]</t>
+    <t xml:space="preserve">[1164.46] - [1171.16]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1156.75] - [1169.46]</t>
+    <t xml:space="preserve">[1148.03] - [1157.13]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-09</t>
   </si>
   <si>
-    <t xml:space="preserve">[1143.17] - [1157.62]</t>
+    <t xml:space="preserve">[1128.34] - [1144.57]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-10</t>
   </si>
   <si>
-    <t xml:space="preserve">[1134.58] - [1147.66]</t>
+    <t xml:space="preserve">[1112.61] - [1134.43]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-11</t>
   </si>
   <si>
-    <t xml:space="preserve">[1106.34] - [1120.81]</t>
+    <t xml:space="preserve">[1081.27] - [1107.52]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-12</t>
   </si>
   <si>
-    <t xml:space="preserve">[1086.95] - [1105.49]</t>
+    <t xml:space="preserve">[1059.03] - [1092.46]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-15</t>
   </si>
   <si>
-    <t xml:space="preserve">[1090.78] - [1107.77]</t>
+    <t xml:space="preserve">[1061.] - [1095.05]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-16</t>
   </si>
   <si>
-    <t xml:space="preserve">[1092.7] - [1105.51]</t>
+    <t xml:space="preserve">[1062.82] - [1092.74]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-17</t>
   </si>
   <si>
-    <t xml:space="preserve">[1110.19] - [1117.68]</t>
+    <t xml:space="preserve">[1083.96] - [1104.76]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-18</t>
   </si>
   <si>
-    <t xml:space="preserve">[1119.23] - [1125.16]</t>
+    <t xml:space="preserve">[1098.57] - [1111.87]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-19</t>
   </si>
   <si>
-    <t xml:space="preserve">[1110.47] - [1117.8]</t>
+    <t xml:space="preserve">[1095.63] - [1104.36]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-22</t>
   </si>
   <si>
-    <t xml:space="preserve">[1104.09] - [1115.57]</t>
+    <t xml:space="preserve">[1091.07] - [1102.41]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-23</t>
   </si>
   <si>
-    <t xml:space="preserve">[1101.36] - [1113.7]</t>
+    <t xml:space="preserve">[1086.13] - [1100.88]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-24</t>
   </si>
   <si>
-    <t xml:space="preserve">[1095.62] - [1107.47]</t>
+    <t xml:space="preserve">[1079.56] - [1095.02]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-25</t>
   </si>
   <si>
-    <t xml:space="preserve">[1074.66] - [1086.38]</t>
+    <t xml:space="preserve">[1063.41] - [1074.25]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-26</t>
   </si>
   <si>
-    <t xml:space="preserve">[1080.03] - [1091.33]</t>
+    <t xml:space="preserve">[1069.78] - [1079.6]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-29</t>
   </si>
   <si>
-    <t xml:space="preserve">[1067.35] - [1081.16]</t>
+    <t xml:space="preserve">[1057.92] - [1069.47]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-30</t>
   </si>
   <si>
-    <t xml:space="preserve">[1043.88] - [1057.96]</t>
+    <t xml:space="preserve">[1040.2] - [1046.21]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-10-31</t>
   </si>
   <si>
-    <t xml:space="preserve">[1028.12] - [1048.12]</t>
+    <t xml:space="preserve">[1023.72] - [1036.43]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-01</t>
   </si>
   <si>
-    <t xml:space="preserve">[1051.21] - [1066.45]</t>
+    <t xml:space="preserve">[1042.6] - [1054.99]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-02</t>
   </si>
   <si>
-    <t xml:space="preserve">[1063.75] - [1073.39]</t>
+    <t xml:space="preserve">[1053.25] - [1061.52]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-05</t>
   </si>
   <si>
-    <t xml:space="preserve">[1066.79] - [1074.38]</t>
+    <t xml:space="preserve">[1060.32] - [1061.99]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-06</t>
   </si>
   <si>
-    <t xml:space="preserve">[1051.86] - [1064.15]</t>
+    <t xml:space="preserve">[1049.76] - [1051.51]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-07</t>
   </si>
   <si>
-    <t xml:space="preserve">[1050.84] - [1066.13]</t>
+    <t xml:space="preserve">[1046.34] - [1053.66]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1069.38] - [1082.51]</t>
+    <t xml:space="preserve">[1060.03] - [1070.3]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-09</t>
   </si>
   <si>
-    <t xml:space="preserve">[1074.85] - [1085.62]</t>
+    <t xml:space="preserve">[1066.98] - [1073.27]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-12</t>
   </si>
   <si>
-    <t xml:space="preserve">[1066.58] - [1077.91]</t>
+    <t xml:space="preserve">[1063.87] - [1065.5]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-13</t>
   </si>
   <si>
-    <t xml:space="preserve">[1048.09] - [1062.88]</t>
+    <t xml:space="preserve">[1048.66] - [1050.59]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-14</t>
   </si>
   <si>
-    <t xml:space="preserve">[1036.86] - [1054.18]</t>
+    <t xml:space="preserve">[1034.97] - [1042.17]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-15</t>
   </si>
   <si>
-    <t xml:space="preserve">[1033.8] - [1050.57]</t>
+    <t xml:space="preserve">[1028.63] - [1038.81]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-16</t>
   </si>
   <si>
-    <t xml:space="preserve">[1042.71] - [1056.46]</t>
+    <t xml:space="preserve">[1034.94] - [1044.79]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-19</t>
   </si>
   <si>
-    <t xml:space="preserve">[1050.01] - [1060.43]</t>
+    <t xml:space="preserve">[1043.18] - [1048.56]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-20</t>
   </si>
   <si>
-    <t xml:space="preserve">[1035.55] - [1047.1]</t>
+    <t xml:space="preserve">[1032.73] - [1034.9]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-21</t>
   </si>
   <si>
-    <t xml:space="preserve">[1022.17] - [1039.02]</t>
+    <t xml:space="preserve">[1019.37] - [1026.76]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-23</t>
   </si>
   <si>
-    <t xml:space="preserve">[1028.31] - [1044.87]</t>
+    <t xml:space="preserve">[1022.39] - [1032.75]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-26</t>
   </si>
   <si>
-    <t xml:space="preserve">[1024.21] - [1039.77]</t>
+    <t xml:space="preserve">[1015.37] - [1027.62]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-27</t>
   </si>
   <si>
-    <t xml:space="preserve">[1035.89] - [1048.2]</t>
+    <t xml:space="preserve">[1027.28] - [1036.09]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-28</t>
   </si>
   <si>
-    <t xml:space="preserve">[1040.46] - [1052.]</t>
+    <t xml:space="preserve">[1034.15] - [1039.81]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-29</t>
   </si>
   <si>
-    <t xml:space="preserve">[1060.69] - [1069.48]</t>
+    <t xml:space="preserve">[1055.78] - [1057.3]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-30</t>
   </si>
   <si>
-    <t xml:space="preserve">[1076.01] - [1083.82]</t>
+    <t xml:space="preserve">[1073.18] - [1071.39]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-03</t>
   </si>
   <si>
-    <t xml:space="preserve">[1084.38] - [1092.6]</t>
+    <t xml:space="preserve">[1084.] - [1079.88]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-04</t>
   </si>
   <si>
-    <t xml:space="preserve">[1096.75] - [1106.4]</t>
+    <t xml:space="preserve">[1099.32] - [1093.55]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-06</t>
   </si>
   <si>
-    <t xml:space="preserve">[1071.09] - [1085.45]</t>
+    <t xml:space="preserve">[1077.53] - [1072.47]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-07</t>
   </si>
   <si>
-    <t xml:space="preserve">[1055.73] - [1074.76]</t>
+    <t xml:space="preserve">[1060.01] - [1062.11]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-10</t>
   </si>
   <si>
-    <t xml:space="preserve">[1038.23] - [1058.89]</t>
+    <t xml:space="preserve">[1038.09] - [1046.62]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-11</t>
   </si>
   <si>
-    <t xml:space="preserve">[1028.98] - [1047.73]</t>
+    <t xml:space="preserve">[1023.94] - [1035.87]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-12</t>
   </si>
   <si>
-    <t xml:space="preserve">[1035.95] - [1049.52]</t>
+    <t xml:space="preserve">[1029.59] - [1037.91]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">[1053.43] - [1060.3]</t>
+    <t xml:space="preserve">[1046.33] - [1048.67]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-14</t>
   </si>
   <si>
-    <t xml:space="preserve">[1062.37] - [1065.8]</t>
+    <t xml:space="preserve">[1057.75] - [1053.75]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-17</t>
   </si>
   <si>
-    <t xml:space="preserve">[1055.44] - [1061.38]</t>
+    <t xml:space="preserve">[1053.35] - [1048.83]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-18</t>
   </si>
   <si>
-    <t xml:space="preserve">[1036.32] - [1048.23]</t>
+    <t xml:space="preserve">[1035.09] - [1035.47]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-19</t>
   </si>
   <si>
-    <t xml:space="preserve">[1030.6] - [1046.7]</t>
+    <t xml:space="preserve">[1026.14] - [1034.08]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-20</t>
   </si>
   <si>
-    <t xml:space="preserve">[1025.61] - [1042.15]</t>
+    <t xml:space="preserve">[1019.08] - [1029.73]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-21</t>
   </si>
   <si>
-    <t xml:space="preserve">[1014.58] - [1030.35]</t>
+    <t xml:space="preserve">[1009.88] - [1018.05]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-24</t>
   </si>
   <si>
-    <t xml:space="preserve">[996.85] - [1013.1]</t>
+    <t xml:space="preserve">[996.87] - [1000.89]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-26</t>
   </si>
   <si>
-    <t xml:space="preserve">[984.39] - [1001.98]</t>
+    <t xml:space="preserve">[984.99] - [989.97]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-27</t>
   </si>
   <si>
-    <t xml:space="preserve">[1010.46] - [1021.41]</t>
+    <t xml:space="preserve">[1005.52] - [1009.91]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-28</t>
   </si>
   <si>
-    <t xml:space="preserve">[1028.55] - [1032.76]</t>
+    <t xml:space="preserve">[1022.07] - [1021.15]</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-31</t>
   </si>
   <si>
-    <t xml:space="preserve">[1043.15] - [1043.24]</t>
+    <t xml:space="preserve">[1039.09] - [1031.23]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-02</t>
   </si>
   <si>
-    <t xml:space="preserve">[1045.04] - [1047.84]</t>
+    <t xml:space="preserve">[1044.85] - [1035.41]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-03</t>
   </si>
   <si>
-    <t xml:space="preserve">[1043.37] - [1051.81]</t>
+    <t xml:space="preserve">[1043.28] - [1039.2]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-04</t>
   </si>
   <si>
-    <t xml:space="preserve">[1030.97] - [1043.07]</t>
+    <t xml:space="preserve">[1031.4] - [1030.41]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-07</t>
   </si>
   <si>
-    <t xml:space="preserve">[1044.3] - [1057.35]</t>
+    <t xml:space="preserve">[1042.18] - [1044.98]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1054.09] - [1064.55]</t>
+    <t xml:space="preserve">[1053.1] - [1052.23]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">[1064.45] - [1071.52]</t>
+    <t xml:space="preserve">[1066.07] - [1059.19]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-10</t>
   </si>
   <si>
-    <t xml:space="preserve">[1069.] - [1075.3]</t>
+    <t xml:space="preserve">[1073.68] - [1062.89]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-11</t>
   </si>
   <si>
-    <t xml:space="preserve">[1066.09] - [1073.48]</t>
+    <t xml:space="preserve">[1070.54] - [1061.03]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-14</t>
   </si>
   <si>
-    <t xml:space="preserve">[1056.71] - [1066.48]</t>
+    <t xml:space="preserve">[1059.65] - [1054.05]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-15</t>
   </si>
   <si>
-    <t xml:space="preserve">[1044.73] - [1057.25]</t>
+    <t xml:space="preserve">[1044.29] - [1044.93]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-16</t>
   </si>
   <si>
-    <t xml:space="preserve">[1054.77] - [1066.26]</t>
+    <t xml:space="preserve">[1049.44] - [1054.15]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-17</t>
   </si>
   <si>
-    <t xml:space="preserve">[1068.42] - [1076.46]</t>
+    <t xml:space="preserve">[1061.51] - [1064.29]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-18</t>
   </si>
   <si>
-    <t xml:space="preserve">[1078.87] - [1084.07]</t>
+    <t xml:space="preserve">[1074.2] - [1071.62]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-22</t>
   </si>
   <si>
-    <t xml:space="preserve">[1091.43] - [1095.97]</t>
+    <t xml:space="preserve">[1090.38] - [1083.24]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-23</t>
   </si>
   <si>
-    <t xml:space="preserve">[1080.04] - [1088.]</t>
+    <t xml:space="preserve">[1082.51] - [1074.94]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-24</t>
   </si>
   <si>
-    <t xml:space="preserve">[1074.46] - [1084.91]</t>
+    <t xml:space="preserve">[1075.69] - [1071.93]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-25</t>
   </si>
   <si>
-    <t xml:space="preserve">[1069.03] - [1081.24]</t>
+    <t xml:space="preserve">[1065.95] - [1068.42]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-28</t>
   </si>
   <si>
-    <t xml:space="preserve">[1077.34] - [1087.02]</t>
+    <t xml:space="preserve">[1070.14] - [1074.46]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-29</t>
   </si>
   <si>
-    <t xml:space="preserve">[1071.66] - [1079.74]</t>
+    <t xml:space="preserve">[1064.77] - [1067.2]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-30</t>
   </si>
   <si>
-    <t xml:space="preserve">[1065.95] - [1073.01]</t>
+    <t xml:space="preserve">[1061.23] - [1060.55]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-01-31</t>
   </si>
   <si>
-    <t xml:space="preserve">[1075.5] - [1081.73]</t>
+    <t xml:space="preserve">[1069.61] - [1069.41]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-01</t>
   </si>
   <si>
-    <t xml:space="preserve">[1097.53] - [1100.02]</t>
+    <t xml:space="preserve">[1089.9] - [1087.63]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-04</t>
   </si>
   <si>
-    <t xml:space="preserve">[1109.38] - [1110.26]</t>
+    <t xml:space="preserve">[1102.72] - [1097.43]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-05</t>
   </si>
   <si>
-    <t xml:space="preserve">[1122.1] - [1124.26]</t>
+    <t xml:space="preserve">[1117.8] - [1111.13]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-06</t>
   </si>
   <si>
-    <t xml:space="preserve">[1131.05] - [1136.96]</t>
+    <t xml:space="preserve">[1129.15] - [1123.65]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-07</t>
   </si>
   <si>
-    <t xml:space="preserve">[1123.18] - [1132.04]</t>
+    <t xml:space="preserve">[1124.28] - [1118.49]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1103.7] - [1115.92]</t>
+    <t xml:space="preserve">[1105.05] - [1102.46]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-11</t>
   </si>
   <si>
-    <t xml:space="preserve">[1091.5] - [1105.55]</t>
+    <t xml:space="preserve">[1088.2] - [1092.5]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-12</t>
   </si>
   <si>
-    <t xml:space="preserve">[1088.9] - [1099.83]</t>
+    <t xml:space="preserve">[1078.87] - [1087.24]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-13</t>
   </si>
   <si>
-    <t xml:space="preserve">[1102.5] - [1107.08]</t>
+    <t xml:space="preserve">[1089.04] - [1094.79]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-14</t>
   </si>
   <si>
-    <t xml:space="preserve">[1115.7] - [1114.47]</t>
+    <t xml:space="preserve">[1103.95] - [1102.]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-15</t>
   </si>
   <si>
-    <t xml:space="preserve">[1123.75] - [1120.04]</t>
+    <t xml:space="preserve">[1115.46] - [1107.12]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-19</t>
   </si>
   <si>
-    <t xml:space="preserve">[1125.26] - [1123.62]</t>
+    <t xml:space="preserve">[1120.13] - [1110.19]</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-20</t>
   </si>
   <si>
-    <t xml:space="preserve">[1123.19] - [1126.17]</t>
+    <t xml:space="preserve">[1116.68] - [1112.4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1111.07] - [1112.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1097.82] - [1102.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1095.5] - [1101.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1097.98] - [1101.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1103.06] - [1101.4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1108.08] - [1102.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1113.49] - [1107.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1124.68] - [1119.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1135.95] - [1130.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1148.93] - [1142.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1155.68] - [1148.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1150.97] - [1142.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1140.68] - [1135.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1144.85] - [1144.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1158.8] - [1157.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1175.12] - [1167.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1184.69] - [1171.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1187.83] - [1173.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1183.07] - [1172.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1181.37] - [1176.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1188.07] - [1187.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1199.38] - [1196.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1204.84] - [1195.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1202.24] - [1188.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1194.12] - [1181.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1178.49] - [1171.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1163.75] - [1162.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1157.55] - [1160.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1166.96] - [1169.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1181.61] - [1178.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1198.08] - [1189.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1208.85] - [1198.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1212.4] - [1201.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1210.59] - [1198.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1204.85] - [1192.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1201.42] - [1188.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1200.87] - [1186.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1206.6] - [1189.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1213.43] - [1194.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1220.59] - [1201.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1226.43] - [1209.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1229.52] - [1215.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1231.91] - [1220.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1236.05] - [1226.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1237.76] - [1228.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1239.27] - [1228.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1240.89] - [1230.71]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1243.17] - [1234.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1224.46] - [1207.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1204.63] - [1186.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1174.77] - [1170.68]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1161.4] - [1166.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1159.24] - [1167.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1167.51] - [1169.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1174.42] - [1171.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1172.82] - [1170.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1166.83] - [1167.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1146.] - [1150.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1127.61] - [1135.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1126.39] - [1137.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1142.37] - [1146.82]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1153.53] - [1148.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1149.43] - [1139.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1145.1] - [1140.2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1136.74] - [1141.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1125.48] - [1135.74]</t>
   </si>
 </sst>
 </file>
@@ -781,21 +1177,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.53"/>
   </cols>
   <sheetData>
@@ -809,7 +1205,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -830,19 +1226,19 @@
         <v>1157.17</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1166.69604492188</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1175.838</v>
+        <v>1156.01599121094</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1161.096</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1173.52001953125</v>
+        <v>1159.85205078125</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,19 +1249,19 @@
         <v>1176.15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1163.62194824219</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1187.142</v>
+        <v>1152.55395507813</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1172.247</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1166.86694335938</v>
+        <v>1158.30798339844</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1.387</v>
+        <v>1.598</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,19 +1272,19 @@
         <v>1185.15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1170.15197753906</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1182.973</v>
+        <v>1158.91198730469</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1168.135</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1171.45300292969</v>
+        <v>1161.11206054688</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1.12</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,19 +1295,19 @@
         <v>1186.73</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1175.11901855469</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>1197.153</v>
+        <v>1163.373046875</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1182.123</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1174.63793945313</v>
+        <v>1160.84997558594</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1.43</v>
+        <v>1.884</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,19 +1318,19 @@
         <v>1191.87</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1183.57995605469</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1195.981</v>
+        <v>1171.63403320313</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1180.967</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1181.47595214844</v>
+        <v>1166.09704589844</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.954</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,19 +1341,19 @@
         <v>1199.89</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1188.33703613281</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>1197.825</v>
+        <v>1176.10705566406</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1182.786</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1183.40405273438</v>
+        <v>1169.01293945313</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1.083</v>
+        <v>1.573</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,19 +1364,19 @@
         <v>1190.96</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1192.60400390625</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1202.635</v>
+        <v>1180.69799804688</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1187.531</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1185.98901367188</v>
+        <v>1173.74499511719</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.761</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,19 +1387,19 @@
         <v>1205</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1194.59301757813</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1205.481</v>
+        <v>1183.19799804688</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1190.338</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1186.12097167969</v>
+        <v>1175.5400390625</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1.235</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,19 +1410,19 @@
         <v>1195.33</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1195.27001953125</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>1170.647</v>
+        <v>1184.35400390625</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1155.976</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1186.87902832031</v>
+        <v>1177.251953125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.696</v>
+        <v>1.379</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,19 +1433,19 @@
         <v>1167.5</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1182.80200195313</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>1159.784</v>
+        <v>1171.16101074219</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1145.26</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1172.40600585938</v>
+        <v>1164.46203613281</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1.199</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,19 +1456,19 @@
         <v>1150.11</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1169.46203613281</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>1151.386</v>
+        <v>1157.13403320313</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1136.976</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1156.75305175781</v>
+        <v>1148.03002929688</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1.074</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,19 +1479,19 @@
         <v>1146.15</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1157.61804199219</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>1141.214</v>
+        <v>1144.56896972656</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1126.942</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1143.17199707031</v>
+        <v>1128.34204101563</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.586</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,19 +1502,19 @@
         <v>1131.08</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1147.65905761719</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1083.492</v>
+        <v>1134.42700195313</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1070.001</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1134.57495117188</v>
+        <v>1112.61096191406</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>3.09</v>
+        <v>2.139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,19 +1525,19 @@
         <v>1072.94</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1120.80700683594</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1081.587</v>
+        <v>1107.52099609375</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1068.122</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1106.34399414063</v>
+        <v>1081.27294921875</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>3.375</v>
+        <v>2.227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,19 +1548,19 @@
         <v>1108</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1105.49096679688</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>1112.413</v>
+        <v>1092.46301269531</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1098.53</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1086.94799804688</v>
+        <v>1059.03405761719</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1.258</v>
+        <v>2.499</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,19 +1571,19 @@
         <v>1108.91</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1107.77502441406</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>1094.545</v>
+        <v>1095.05395507813</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1080.904</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1090.77697753906</v>
+        <v>1060.99597167969</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.223</v>
+        <v>1.546</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,19 +1594,19 @@
         <v>1104.59</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1105.50500488281</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>1123.637</v>
+        <v>1092.73803710938</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1109.602</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1092.70397949219</v>
+        <v>1062.81701660156</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1.418</v>
+        <v>2.645</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,19 +1617,19 @@
         <v>1126.46</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1117.67700195313</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>1118.035</v>
+        <v>1104.76196289063</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1104.076</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1110.18994140625</v>
+        <v>1083.95703125</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0.741</v>
+        <v>1.874</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,19 +1640,19 @@
         <v>1121.84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1125.16003417969</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>1090.256</v>
+        <v>1111.86596679688</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1076.673</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1119.22705078125</v>
+        <v>1098.56604003906</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1.477</v>
+        <v>1.461</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,19 +1663,19 @@
         <v>1093.37</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1117.80395507813</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>1098.764</v>
+        <v>1104.35803222656</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1085.066</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1110.47094726563</v>
+        <v>1095.63195800781</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1.65</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,19 +1686,19 @@
         <v>1103.06</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1115.57495117188</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>1103.474</v>
+        <v>1102.40600585938</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1089.712</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1104.08703613281</v>
+        <v>1091.06604003906</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.595</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,19 +1709,19 @@
         <v>1080.89</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1113.69702148438</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>1106.009</v>
+        <v>1100.88195800781</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1092.213</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1101.35900878906</v>
+        <v>1086.13195800781</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1.728</v>
+        <v>1.203</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,19 +1732,19 @@
         <v>1104.25</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1107.46801757813</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>1052.917</v>
+        <v>1095.01599121094</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1039.84</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1095.6240234375</v>
+        <v>1079.55700683594</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>2.174</v>
+        <v>2.328</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,19 +1755,19 @@
         <v>1071.79</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1086.37902832031</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>1097.872</v>
+        <v>1074.248046875</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1084.186</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1074.65795898438</v>
+        <v>1063.41394042969</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1.738</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,19 +1778,19 @@
         <v>1037.03</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1091.32897949219</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>1073.721</v>
+        <v>1079.59802246094</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1060.362</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1080.03198242188</v>
+        <v>1069.77905273438</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>2.912</v>
+        <v>2.496</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,19 +1801,19 @@
         <v>1082.47</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1081.16394042969</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>1022.221</v>
+        <v>1069.46704101563</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1009.56</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1067.35400390625</v>
+        <v>1057.9169921875</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>2.268</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,19 +1824,19 @@
         <v>1008.46</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1057.9560546875</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>1038.386</v>
+        <v>1046.21398925781</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>1025.505</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1043.88195800781</v>
+        <v>1040.19897460938</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>2.719</v>
+        <v>2.588</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,19 +1847,19 @@
         <v>1059.81</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1048.11694335938</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>1079.032</v>
+        <v>1036.42700195313</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1065.601</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1028.123046875</v>
+        <v>1023.71600341797</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>2.911</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,19 +1870,19 @@
         <v>1075.8</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1066.44494628906</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>1072.248</v>
+        <v>1054.99401855469</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1058.909</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1051.21398925781</v>
+        <v>1042.60498046875</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1.416</v>
+        <v>1.737</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,19 +1893,19 @@
         <v>1073.73</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>1073.38696289063</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>1060.012</v>
+        <v>1061.51599121094</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1046.839</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1063.75402832031</v>
+        <v>1053.25500488281</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.192</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,19 +1916,19 @@
         <v>1055</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1074.38195800781</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>1042.274</v>
+        <v>1061.98803710938</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1029.341</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1066.78894042969</v>
+        <v>1060.31896972656</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>2.095</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,19 +1939,19 @@
         <v>1039.48</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1064.15002441406</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>1058.027</v>
+        <v>1051.50598144531</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1044.881</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1051.86206054688</v>
+        <v>1049.76000976563</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1.478</v>
+        <v>0.812</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,19 +1962,19 @@
         <v>1069</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1066.13403320313</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>1095.687</v>
+        <v>1053.66003417969</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>1082.031</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1050.83703613281</v>
+        <v>1046.33996582031</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>2.181</v>
+        <v>2.367</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,19 +1985,19 @@
         <v>1091.38</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1082.51098632813</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>1084.674</v>
+        <v>1070.29895019531</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1071.167</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1069.38195800781</v>
+        <v>1060.02697753906</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1.111</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,19 +2008,19 @@
         <v>1073.99</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1085.61596679688</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>1068.389</v>
+        <v>1073.27197265625</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1055.103</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1074.84899902344</v>
+        <v>1066.97705078125</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.844</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,19 +2031,19 @@
         <v>1061.39</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1077.91296386719</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>1040.811</v>
+        <v>1065.49694824219</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1027.898</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1066.5830078125</v>
+        <v>1063.8740234375</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>2.016</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,19 +2054,19 @@
         <v>1043.29</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1062.8759765625</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>1038.225</v>
+        <v>1050.58605957031</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>1025.347</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1048.08605957031</v>
+        <v>1048.65795898438</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1.414</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,19 +2077,19 @@
         <v>1050</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1054.17797851562</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>1045.852</v>
+        <v>1042.17504882813</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>1032.87</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1036.85705566406</v>
+        <v>1034.96997070313</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.629</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,19 +2100,19 @@
         <v>1044.71</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1050.56701660156</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>1066.946</v>
+        <v>1038.80505371094</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>1053.679</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1033.79602050781</v>
+        <v>1028.62805175781</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1.834</v>
+        <v>1.471</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,19 +2123,19 @@
         <v>1059.41</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1056.46203613281</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>1063.72</v>
+        <v>1044.791015625</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1050.496</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1042.7060546875</v>
+        <v>1034.93505859375</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1.127</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,19 +2146,19 @@
         <v>1057.2</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1060.43005371094</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>1022.141</v>
+        <v>1048.56005859375</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1009.481</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1050.01293945313</v>
+        <v>1043.17895507813</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1.516</v>
+        <v>2.078</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,19 +2169,19 @@
         <v>1000</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1047.09899902344</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>1027.913</v>
+        <v>1034.90502929687</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1015.175</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1035.55102539063</v>
+        <v>1032.72900390625</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>2.726</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,19 +2192,19 @@
         <v>1036.76</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1039.02404785156</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>1039.789</v>
+        <v>1026.75903320313</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>1026.889</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1022.17401123047</v>
+        <v>1019.37097167969</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.956</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,19 +2215,19 @@
         <v>1030</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1044.8740234375</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>1026.029</v>
+        <v>1032.75305175781</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1013.316</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1028.30505371094</v>
+        <v>1022.39001464844</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.833</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,19 +2238,19 @@
         <v>1038.35</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1039.77294921875</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>1050.822</v>
+        <v>1027.623046875</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>1037.773</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1024.21203613281</v>
+        <v>1015.36798095703</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1.335</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,19 +2261,19 @@
         <v>1041</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1048.19897460938</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>1046.603</v>
+        <v>1036.09399414063</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>1033.612</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1035.88793945313</v>
+        <v>1027.27795410156</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.858</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,19 +2284,19 @@
         <v>1048.76</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>1052.0009765625</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>1088.512</v>
+        <v>1039.81103515625</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1074.953</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1040.458984375</v>
+        <v>1034.15295410156</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>2.362</v>
+        <v>2.324</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,19 +2307,19 @@
         <v>1076.08</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1069.47595214844</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>1090.587</v>
+        <v>1057.30200195313</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1077</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1060.68896484375</v>
+        <v>1055.78198242188</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1.678</v>
+        <v>1.858</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,19 +2330,19 @@
         <v>1089.07</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1083.81994628906</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>1096.73</v>
+        <v>1071.39501953125</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>1083.059</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1076.01196289063</v>
+        <v>1073.17602539063</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1.186</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,19 +2353,19 @@
         <v>1123.14</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>1092.59802246094</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>1108.755</v>
+        <v>1079.87902832031</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>1094.922</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1084.38305664063</v>
+        <v>1083.99597167969</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>2.459</v>
+        <v>2.425</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,19 +2376,19 @@
         <v>1103.12</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>1106.40002441406</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>1053.027</v>
+        <v>1093.55004882813</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1039.948</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1096.74694824219</v>
+        <v>1099.32299804688</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>2.225</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,19 +2399,19 @@
         <v>1034.26</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>1085.45104980469</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>1070.975</v>
+        <v>1072.46801757813</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1057.653</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1071.09399414063</v>
+        <v>1077.53405761719</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>2.48</v>
+        <v>2.787</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,19 +2422,19 @@
         <v>1060.01</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>1074.76098632812</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>1038.756</v>
+        <v>1062.11303710938</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1025.871</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1055.72900390625</v>
+        <v>1060.00805664063</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1.513</v>
+        <v>1.763</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,19 +2445,19 @@
         <v>1035.05</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>1058.89001464844</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>1041.733</v>
+        <v>1046.62097167969</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1028.807</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1038.22595214844</v>
+        <v>1038.09399414063</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,19 +2468,19 @@
         <v>1056.49</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>1047.72802734375</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>1053.959</v>
+        <v>1035.86694335938</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>1040.868</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1028.97705078125</v>
+        <v>1023.93798828125</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1.6</v>
+        <v>1.789</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,19 +2491,19 @@
         <v>1068</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1049.51599121094</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>1065.914</v>
+        <v>1037.90698242188</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1052.661</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1035.95397949219</v>
+        <v>1029.58898925781</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>2.271</v>
+        <v>2.505</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,19 +2514,19 @@
         <v>1068.07</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>1060.30297851563</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>1064.13</v>
+        <v>1048.67199707031</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1050.902</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1053.43005371094</v>
+        <v>1046.32702636719</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>0.866</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,19 +2537,19 @@
         <v>1049.98</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>1065.80297851563</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>1044.288</v>
+        <v>1053.74694824219</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1031.328</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1062.36694335938</v>
+        <v>1057.75</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1.619</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,19 +2560,19 @@
         <v>1037.51</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>1061.38000488281</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>1018.664</v>
+        <v>1048.833984375</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>1006.051</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1055.44299316406</v>
+        <v>1053.34997558594</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>2.956</v>
+        <v>2.897</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,19 +2583,19 @@
         <v>1026.09</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>1048.22900390625</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>1030.87</v>
+        <v>1035.46899414063</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>1018.091</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1036.31494140625</v>
+        <v>1035.09094238281</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1.343</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,19 +2606,19 @@
         <v>1033.99</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>1046.69897460938</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>1025.158</v>
+        <v>1034.0849609375</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1012.456</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1030.60205078125</v>
+        <v>1026.14501953125</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>0.88</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,19 +2629,19 @@
         <v>1018.13</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>1042.15100097656</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>1011.529</v>
+        <v>1029.72998046875</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>999.012</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1025.61401367188</v>
+        <v>1019.083984375</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1.876</v>
+        <v>1.574</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,19 +2652,19 @@
         <v>1015.3</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>1030.34802246094</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>981.595</v>
+        <v>1018.04797363281</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>969.484</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1014.58099365234</v>
+        <v>1009.88098144531</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>2.421</v>
+        <v>2.219</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,19 +2675,19 @@
         <v>973.9</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>1013.09698486328</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>978.268</v>
+        <v>1000.89202880859</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>966.202</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>996.848999023437</v>
+        <v>996.8740234375</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>2.962</v>
+        <v>2.973</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,19 +2698,19 @@
         <v>989.01</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>1001.97698974609</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>1041.643</v>
+        <v>989.966979980469</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>1028.718</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>984.387023925781</v>
+        <v>984.994018554688</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>3.404</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,19 +2721,19 @@
         <v>1017.15</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>1021.40899658203</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>1046.072</v>
+        <v>1009.90502929688</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1033.088</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1010.46002197266</v>
+        <v>1005.52099609375</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1.912</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,19 +2744,19 @@
         <v>1049.62</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>1032.76501464844</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>1039.258</v>
+        <v>1021.14801025391</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>1026.365</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1028.55200195313</v>
+        <v>1022.06896972656</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1.318</v>
+        <v>1.566</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,19 +2767,19 @@
         <v>1050.96</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>1043.23803710938</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>1037.784</v>
+        <v>1031.22900390625</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>1024.912</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1043.15002441406</v>
+        <v>1039.09497070313</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>0.626</v>
+        <v>1.631</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,19 +2790,19 @@
         <v>1016.57</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>1047.83605957031</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>1048.046</v>
+        <v>1035.41198730469</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>1035.035</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1045.0400390625</v>
+        <v>1044.84997558594</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1.681</v>
+        <v>1.401</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,19 +2813,19 @@
         <v>1041</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>1051.81103515625</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>1018.193</v>
+        <v>1039.19604492188</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>1005.586</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1043.37097167969</v>
+        <v>1043.27502441406</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1.756</v>
+        <v>1.961</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,19 +2836,19 @@
         <v>1032.59</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>1043.07104492188</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>1072.959</v>
+        <v>1030.40905761719</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>1059.611</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1030.96997070313</v>
+        <v>1031.39904785156</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>2.464</v>
+        <v>1.437</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,19 +2859,19 @@
         <v>1071.5</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>1057.35095214844</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>1070.634</v>
+        <v>1044.98095703125</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>1057.317</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1044.30200195313</v>
+        <v>1042.18200683594</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1.89</v>
+        <v>1.953</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,19 +2882,19 @@
         <v>1076.11</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>1064.55200195313</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>1078.541</v>
+        <v>1052.22705078125</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>1065.117</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1054.09399414063</v>
+        <v>1053.09802246094</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1.67</v>
+        <v>1.674</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,19 +2905,19 @@
         <v>1081.65</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>1071.51794433594</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>1076.918</v>
+        <v>1059.18798828125</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>1063.516</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1064.44897460938</v>
+        <v>1066.06604003906</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1.047</v>
+        <v>1.158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,19 +2928,19 @@
         <v>1067.66</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>1075.30297851563</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>1072.578</v>
+        <v>1062.89001464844</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>1059.235</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1068.99597167969</v>
+        <v>1073.67504882813</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>0.525</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,19 +2951,19 @@
         <v>1063.18</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>1073.48498535156</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>1059.41</v>
+        <v>1061.02502441406</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>1046.245</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1066.09301757813</v>
+        <v>1070.541015625</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>0.8</v>
+        <v>1.262</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,19 +2974,19 @@
         <v>1046.92</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>1066.48400878906</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>1046.884</v>
+        <v>1054.05395507813</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>1033.888</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1056.7060546875</v>
+        <v>1059.64794921875</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1.404</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,19 +2997,19 @@
         <v>1050.17</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>1057.25305175781</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>1079.413</v>
+        <v>1044.93005371094</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>1065.977</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1044.72998046875</v>
+        <v>1044.28796386719</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>162</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1.944</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,19 +3020,19 @@
         <v>1080</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>1066.25805664063</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>1083.241</v>
+        <v>1054.14697265625</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>1069.753</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1054.76904296875</v>
+        <v>1049.44299316406</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1.95</v>
+        <v>2.146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,19 +3043,19 @@
         <v>1079.47</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>1076.4580078125</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>1092.19</v>
+        <v>1064.28503417969</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>1078.581</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1068.4150390625</v>
+        <v>1061.51196289063</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>166</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1.228</v>
+        <v>1.495</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,19 +3066,19 @@
         <v>1100</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>1084.06994628906</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>1100.568</v>
+        <v>1071.61999511719</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>1086.846</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1078.8740234375</v>
+        <v>1074.19494628906</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>168</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1.71</v>
+        <v>1.872</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,19 +3089,19 @@
         <v>1088</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>1095.97204589844</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>1072.769</v>
+        <v>1083.23498535156</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>1059.423</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1091.43200683594</v>
+        <v>1090.37902832031</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1.236</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,19 +3112,19 @@
         <v>1077.35</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>1087.998046875</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>1077.829</v>
+        <v>1074.94299316406</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>1064.415</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1080.03698730469</v>
+        <v>1082.50500488281</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>0.597</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,19 +3135,19 @@
         <v>1076.48</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>1084.91003417969</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>1076.156</v>
+        <v>1071.93005371094</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>1062.764</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1074.4599609375</v>
+        <v>1075.69396972656</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>174</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,19 +3158,19 @@
         <v>1085</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>1081.23596191406</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>1093.282</v>
+        <v>1068.42297363281</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>1079.659</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1069.02600097656</v>
+        <v>1065.94604492188</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1.283</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,19 +3181,19 @@
         <v>1080.11</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>1087.02294921875</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>1072.328</v>
+        <v>1074.4580078125</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>1058.988</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1077.34497070313</v>
+        <v>1070.14294433594</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>178</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>0.554</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,19 +3204,19 @@
         <v>1072.68</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>1079.73596191406</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>1062.848</v>
+        <v>1067.19702148438</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>1049.636</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1071.66198730469</v>
+        <v>1064.77404785156</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>180</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>0.744</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,19 +3227,19 @@
         <v>1068.43</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>1073.01403808594</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>1091.348</v>
+        <v>1060.55395507813</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>1077.751</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1065.95202636719</v>
+        <v>1061.22595214844</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1.378</v>
+        <v>1.135</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,19 +3250,19 @@
         <v>1103</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>1081.73205566406</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>1118.716</v>
+        <v>1069.41101074219</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>1104.748</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1075.501953125</v>
+        <v>1069.61096191406</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>2.896</v>
+        <v>3.113</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,19 +3273,19 @@
         <v>1112.4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>1100.01501464844</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>1113.084</v>
+        <v>1087.626953125</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>1099.193</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1097.52600097656</v>
+        <v>1089.89697265625</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1.256</v>
+        <v>1.536</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,19 +3296,19 @@
         <v>1112.66</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>1110.25598144531</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>1135.181</v>
+        <v>1097.42602539063</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>1120.991</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1109.38500976563</v>
+        <v>1102.71594238281</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1.244</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,19 +3319,19 @@
         <v>1124.84</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>1124.25903320313</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>1148.399</v>
+        <v>1111.13305664063</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>1134.03</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1122.09594726563</v>
+        <v>1117.80102539063</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>190</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1.171</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,19 +3342,19 @@
         <v>1139.57</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>1136.958984375</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>1117.574</v>
+        <v>1123.65197753906</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>1103.621</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1131.05200195313</v>
+        <v>1129.14904785156</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>192</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>0.718</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,19 +3365,19 @@
         <v>1104.16</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>1132.0419921875</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>1101.019</v>
+        <v>1118.48706054688</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>1087.29</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1123.18395996094</v>
+        <v>1124.27795410156</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>2.269</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,19 +3388,19 @@
         <v>1087</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>1115.9189453125</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>1097.361</v>
+        <v>1102.46105957031</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>1083.682</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1103.70300292969</v>
+        <v>1105.05004882813</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1.619</v>
+        <v>1.697</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,19 +3411,19 @@
         <v>1096.95</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>1105.55102539063</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>1097.311</v>
+        <v>1092.498046875</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>1083.633</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1091.50305175781</v>
+        <v>1088.19604492188</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>0.657</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,19 +3434,19 @@
         <v>1106.8</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>1099.83203125</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>1123.727</v>
+        <v>1087.24304199219</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>1109.691</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1088.89794921875</v>
+        <v>1078.86999511719</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1.864</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,19 +3457,19 @@
         <v>1124.99</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>1107.07495117188</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>1122.515</v>
+        <v>1094.78698730469</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>1108.495</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1102.5</v>
+        <v>1089.03601074219</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>202</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1.688</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,19 +3480,19 @@
         <v>1118.05</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>1114.46801757813</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>1124.028</v>
+        <v>1102.00305175781</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>1109.988</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1115.70495605469</v>
+        <v>1103.94995117188</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>0.53</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,19 +3503,19 @@
         <v>1130.08</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>1120.0439453125</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>1115.991</v>
+        <v>1107.11596679688</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>1102.06</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1123.751953125</v>
+        <v>1115.46105957031</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>0.792</v>
+        <v>1.624</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,19 +3526,19 @@
         <v>1110</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>1123.62194824219</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>1120.911</v>
+        <v>1110.19299316406</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>1106.913</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1125.26293945313</v>
+        <v>1120.13195800781</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>0.808</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,19 +3549,1537 @@
         <v>1119.99</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>1126.1650390625</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>1117.654</v>
+        <v>1112.40100097656</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>1103.701</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1123.19396972656</v>
+        <v>1116.68005371094</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>210</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>0.524</v>
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1110.84</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>1112.4990234375</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>1085.57</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>1111.07495117188</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>1.249</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1100.9</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>1102.89196777344</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>1098.817</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>1097.81896972656</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>1101.27502441406</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>1097.858</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>1095.4990234375</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>0.767</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1105.75</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>1101.16101074219</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>1103.523</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>1097.98095703125</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1106.95</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>1101.39904785156</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>1104.432</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>1103.06396484375</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1111.3</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>1102.5</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>1108.258</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1108.07604980469</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1124.9</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>1107.4599609375</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>1129.087</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1113.48901367188</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1146.99</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>1119.52294921875</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>1135.819</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1124.68103027344</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>1.688</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1150.06</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>1130.44604492188</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>1149.886</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>1135.94799804688</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>1.459</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1162.49</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>1142.98706054688</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>1145.764</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>1148.92602539063</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1155.72</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>1148.56896972656</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>1131.37</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>1155.67602539063</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>1.384</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1126.73</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>1142.71899414063</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>1130.402</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>1150.96704101563</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1144.45</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>1135.7900390625</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>1163.459</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>1140.68395996094</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1178.26</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>1144.4580078125</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>1180.7</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>1144.84594726563</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>2.953</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1200.645</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>1157.85400390625</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>1180.818</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>1158.80004882813</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>2.714</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1194.51</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>1167.07104492188</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>1173.137</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>1175.11804199219</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>1.233</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1193.38</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>1171.11901855469</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>1172.06</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>1184.68798828125</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>1.471</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1183.3</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>1173.59204101563</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>1171.862</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>1187.83203125</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1188.81</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>1172.89196777344</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1186.285</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>1183.06701660156</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>0.805</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1197.35</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>1176.96301269531</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>1211.118</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>1181.36596679688</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>1187.30505371094</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>1218.601</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>1188.07397460938</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>2.432</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1226.32</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>1196.23803710938</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>1192.859</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>1199.38000488281</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1196.93</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>1195.11999511719</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>1180.502</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>1204.84399414063</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1198.53</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>1188.44201660156</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>1172.218</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>1202.24096679688</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>1.701</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1185.5</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>1181.73095703125</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>1160.75</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1194.11804199219</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>1.596</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1171.54</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>1171.2060546875</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>1156.272</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1178.49401855469</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1174.9</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>1162.60998535156</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>1161.037</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>1163.74499511719</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1184.1</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>1160.56799316406</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>1181.916</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>1157.55200195313</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1195.32</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>1169.04699707031</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>1187.906</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>1166.96398925781</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1207.48</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>1178.25402832031</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>1193.274</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>1181.60803222656</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1205.94</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>1189.60998535156</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>1202.25</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>1198.07604980469</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1214.99</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>1198.8349609375</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>1194.49</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>1208.84497070313</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1207.89</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>1201.41198730469</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>1191.218</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>1212.39794921875</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>1198.92797851563</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>1184.703</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>1210.59301757813</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1200.68</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>1192.7939453125</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>1189.557</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>1204.84594726563</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1203.96</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>1188.74194335938</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>1191.989</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>1201.4189453125</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>1186.56994628906</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>1205.087</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>1200.87194824219</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>1189.89599609375</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1208.28</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>1206.60205078125</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>1.223</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>1194.48999023438</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>1214.242</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>1213.42602539063</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>1.279</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>1201.47204589844</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>1223.346</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>1220.58801269531</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>1.391</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1239.18</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>1209.9169921875</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>1223.376</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>1226.43298339844</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>1.306</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1235.99</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>1215.61499023438</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>1235.703</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>1229.51904296875</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1250.69</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>1220.28002929688</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>1251.234</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1231.91101074219</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>1.988</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1264.12</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>1226.72497558594</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>1242.781</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1236.05297851563</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1264.77</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>1228.49499511719</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>1250.146</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1237.76196289063</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>1228.89697265625</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1258.776</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1239.27001953125</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>2.355</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>1230.71301269531</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>1274</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1240.89501953125</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>2.998</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>1234.42797851563</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>1176.034</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1243.17395019531</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1188.05</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>1207.13598632813</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>1155.867</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1224.46105957031</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1167.76</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>1186.15002441406</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>1150.46</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>1204.6259765625</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>3.142</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1173.65</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>1170.68103027344</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>1172.989</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>1174.77404785156</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1166.26</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>1166.86401367188</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>1176.933</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>1161.39794921875</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>0.686</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1180.47</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>1167.96203613281</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>1161.818</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>1159.23596191406</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1172.01</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>1169.34497070313</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>1154.078</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>1167.51196289063</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1159.03</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>1171.48706054688</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>1150.232</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>1174.42395019531</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>1.589</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1163.59</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>1170.2509765625</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>1152.101</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>1172.82299804688</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G159" s="1" t="n">
+        <v>1.186</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1141.96</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>1167.87805175781</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>1120.229</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>1166.82995605469</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G160" s="1" t="n">
+        <v>3.215</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1137.21</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>1150.82702636719</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>1108.772</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>1146.00402832031</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G161" s="1" t="n">
+        <v>2.278</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1117.87</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>1135.03100585938</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>1152.041</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>1127.60595703125</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G162" s="1" t="n">
+        <v>1.828</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1164.51</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>1137.15002441406</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>1166.642</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1126.38500976563</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G163" s="1" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1168.47</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>1146.81701660156</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>1150.153</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>1142.373046875</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G164" s="1" t="n">
+        <v>1.265</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1144.5</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>1148.26904296875</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>1126.971</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>1153.53002929688</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G165" s="1" t="n">
+        <v>1.343</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1148.49</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>1139.06896972656</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>1137.628</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>1149.42602539063</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G166" s="1" t="n">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1146.75</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>1140.20397949219</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>1139.398</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>1145.10400390625</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1140.5</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>1141.82604980469</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>1128.869</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>1136.73706054688</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G168" s="1" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1147.36</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>1135.73999023438</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>1121.653</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>1125.48400878906</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G169" s="1" t="n">
+        <v>0.677</v>
       </c>
     </row>
   </sheetData>
